--- a/tests/regression_data/kofskey1972a_kacker_okapuu_2.xlsx
+++ b/tests/regression_data/kofskey1972a_kacker_okapuu_2.xlsx
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.50607009378626</v>
+        <v>81.50607011570409</v>
       </c>
       <c r="D2" t="n">
-        <v>81.50607009378626</v>
+        <v>81.50607011570409</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>81.50607009378626</v>
+        <v>81.50607011570409</v>
       </c>
       <c r="H2" t="n">
-        <v>81.50607009378626</v>
+        <v>81.50607011570409</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -767,40 +767,40 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>132670.3185680757</v>
+        <v>132670.3185650912</v>
       </c>
       <c r="L2" t="n">
-        <v>292.2880910186942</v>
+        <v>292.2880910168129</v>
       </c>
       <c r="M2" t="n">
-        <v>418462.8113575229</v>
+        <v>418462.8113556363</v>
       </c>
       <c r="N2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718241</v>
       </c>
       <c r="O2" t="n">
-        <v>1.582066382536516</v>
+        <v>1.58206638251113</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9994975152389267</v>
+        <v>0.9994975152389136</v>
       </c>
       <c r="Q2" t="n">
-        <v>342.8704314568917</v>
+        <v>342.8704314557872</v>
       </c>
       <c r="R2" t="n">
-        <v>1.816826039752926e-05</v>
+        <v>1.816826039743719e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02581945500418402</v>
+        <v>0.02581945500404222</v>
       </c>
       <c r="T2" t="n">
-        <v>1006.644283335965</v>
+        <v>1006.644283335866</v>
       </c>
       <c r="U2" t="n">
-        <v>717.7099970325003</v>
+        <v>717.7099970324151</v>
       </c>
       <c r="V2" t="n">
-        <v>1.402578043357505</v>
+        <v>1.402578043357534</v>
       </c>
       <c r="W2" t="n">
         <v>137999.9999977021</v>
@@ -883,16 +883,16 @@
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>0.2377168242459946</v>
+        <v>0.2377168243106849</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.2377168242459946</v>
+        <v>0.2377168243106849</v>
       </c>
       <c r="BE2" t="n">
-        <v>185668.8509805141</v>
+        <v>185668.8510284039</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.768312409544994</v>
+        <v>2.768312410245001</v>
       </c>
       <c r="BG2" t="n">
         <v>421784.4310884894</v>
@@ -907,136 +907,136 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>262.1637088291009</v>
+        <v>262.1637090303049</v>
       </c>
       <c r="D3" t="n">
-        <v>110.7951709168495</v>
+        <v>110.795171001882</v>
       </c>
       <c r="E3" t="n">
-        <v>237.6010107902231</v>
+        <v>237.6010109725758</v>
       </c>
       <c r="F3" t="n">
         <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>262.1637088291009</v>
+        <v>262.1637090303049</v>
       </c>
       <c r="H3" t="n">
-        <v>110.7951709168495</v>
+        <v>110.795171001882</v>
       </c>
       <c r="I3" t="n">
-        <v>237.6010107902231</v>
+        <v>237.6010109725758</v>
       </c>
       <c r="J3" t="n">
         <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>87239.41367258536</v>
+        <v>87239.41360808646</v>
       </c>
       <c r="L3" t="n">
-        <v>261.3067620220875</v>
+        <v>261.306761969423</v>
       </c>
       <c r="M3" t="n">
-        <v>387419.5259749746</v>
+        <v>387419.5259222262</v>
       </c>
       <c r="N3" t="n">
-        <v>3790.912536307788</v>
+        <v>3790.912536318009</v>
       </c>
       <c r="O3" t="n">
-        <v>1.163841459883656</v>
+        <v>1.163841459258002</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9993371568676377</v>
+        <v>0.9993371568674255</v>
       </c>
       <c r="Q3" t="n">
-        <v>324.167734122982</v>
+        <v>324.1677340902736</v>
       </c>
       <c r="R3" t="n">
-        <v>1.661766181142808e-05</v>
+        <v>1.661766180873214e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02344265665875015</v>
+        <v>0.02344265665463858</v>
       </c>
       <c r="T3" t="n">
-        <v>1005.248626614759</v>
+        <v>1005.248626612869</v>
       </c>
       <c r="U3" t="n">
-        <v>716.5822144905616</v>
+        <v>716.5822144890921</v>
       </c>
       <c r="V3" t="n">
-        <v>1.402837813005753</v>
+        <v>1.402837813005992</v>
       </c>
       <c r="W3" t="n">
-        <v>134207.5506895557</v>
+        <v>134207.5506849334</v>
       </c>
       <c r="X3" t="n">
-        <v>295.5912067458976</v>
+        <v>295.5912067459867</v>
       </c>
       <c r="Y3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="Z3" t="n">
-        <v>3790.912536313012</v>
+        <v>3790.912536323233</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.582456026290044</v>
+        <v>1.582456026235038</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9995339717787345</v>
+        <v>0.9995339717787515</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.8002038023069</v>
+        <v>344.8002038023539</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.832897810951507e-05</v>
+        <v>1.832897810951872e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02606676240477357</v>
+        <v>0.02606676240477872</v>
       </c>
       <c r="AF3" t="n">
-        <v>1006.759315912353</v>
+        <v>1006.75931591228</v>
       </c>
       <c r="AG3" t="n">
-        <v>717.8533581676268</v>
+        <v>717.853358167619</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.402458182381677</v>
+        <v>1.40245818238159</v>
       </c>
       <c r="AI3" t="n">
-        <v>134207.5506895557</v>
+        <v>134207.5506849334</v>
       </c>
       <c r="AJ3" t="n">
-        <v>295.5912067458976</v>
+        <v>295.5912067459867</v>
       </c>
       <c r="AK3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="AL3" t="n">
-        <v>3790.912536313012</v>
+        <v>3790.912536323233</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582456026290044</v>
+        <v>1.582456026235038</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.9995339717787345</v>
+        <v>0.9995339717787515</v>
       </c>
       <c r="AO3" t="n">
-        <v>344.8002038023069</v>
+        <v>344.8002038023539</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.832897810951507e-05</v>
+        <v>1.832897810951872e-05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.02606676240477357</v>
+        <v>0.02606676240477872</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.759315912353</v>
+        <v>1006.75931591228</v>
       </c>
       <c r="AS3" t="n">
-        <v>717.8533581676268</v>
+        <v>717.853358167619</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.402458182381677</v>
+        <v>1.40245818238159</v>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="AV3" t="n">
-        <v>3.667913195393169e-12</v>
+        <v>-9.436063042045362e-13</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.08074515083712719</v>
+        <v>0.08074515083721484</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.01698214421059316</v>
+        <v>0.01698214421063953</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.04899632027095226</v>
+        <v>0.04899632027099356</v>
       </c>
       <c r="BA3" t="n">
         <v>0.01476668635558176</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8087285723805006</v>
+        <v>0.8087285730827797</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.8087285723805006</v>
+        <v>0.8087285730827797</v>
       </c>
       <c r="BE3" t="n">
-        <v>480323.9254396972</v>
+        <v>480323.9256280471</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.768312409542442</v>
+        <v>2.768312410178871</v>
       </c>
       <c r="BG3" t="n">
         <v>421784.4310884894</v>
@@ -1091,136 +1091,136 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>248.9859257694221</v>
+        <v>248.9859257109333</v>
       </c>
       <c r="D4" t="n">
-        <v>107.0531758919862</v>
+        <v>107.0531759006011</v>
       </c>
       <c r="E4" t="n">
-        <v>224.7968166204665</v>
+        <v>224.7968165515815</v>
       </c>
       <c r="F4" t="n">
-        <v>64.53518548360081</v>
+        <v>64.53518547499547</v>
       </c>
       <c r="G4" t="n">
-        <v>248.9859257694221</v>
+        <v>248.9859257109333</v>
       </c>
       <c r="H4" t="n">
-        <v>107.0531758919862</v>
+        <v>107.0531759006011</v>
       </c>
       <c r="I4" t="n">
-        <v>224.7968166204665</v>
+        <v>224.7968165515815</v>
       </c>
       <c r="J4" t="n">
-        <v>64.53518548360083</v>
+        <v>64.53518547499547</v>
       </c>
       <c r="K4" t="n">
-        <v>91451.9261975806</v>
+        <v>91451.92621664553</v>
       </c>
       <c r="L4" t="n">
-        <v>264.6692452685588</v>
+        <v>264.6692452830992</v>
       </c>
       <c r="M4" t="n">
-        <v>390787.4354727608</v>
+        <v>390787.435487324</v>
       </c>
       <c r="N4" t="n">
-        <v>3790.191475399886</v>
+        <v>3790.191475395107</v>
       </c>
       <c r="O4" t="n">
-        <v>1.204523008248201</v>
+        <v>1.204523008433063</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9993509923980589</v>
+        <v>0.999350992398117</v>
       </c>
       <c r="Q4" t="n">
-        <v>326.2494159872092</v>
+        <v>326.2494159961826</v>
       </c>
       <c r="R4" t="n">
-        <v>1.678935938046459e-05</v>
+        <v>1.678935938120527e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0237046599314417</v>
+        <v>0.02370465993257262</v>
       </c>
       <c r="T4" t="n">
-        <v>1005.372679140634</v>
+        <v>1005.372679141194</v>
       </c>
       <c r="U4" t="n">
-        <v>716.6789524000882</v>
+        <v>716.6789524005206</v>
       </c>
       <c r="V4" t="n">
-        <v>1.402821550393992</v>
+        <v>1.402821550393928</v>
       </c>
       <c r="W4" t="n">
-        <v>134545.2585737804</v>
+        <v>134545.2585760213</v>
       </c>
       <c r="X4" t="n">
-        <v>295.5919898334602</v>
+        <v>295.5919898334655</v>
       </c>
       <c r="Y4" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="Z4" t="n">
-        <v>3790.191475405104</v>
+        <v>3790.191475400326</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.5864355993119</v>
+        <v>1.586435599338307</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9995328219705635</v>
+        <v>0.9995328219705558</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.8010066303482</v>
+        <v>344.8010066303536</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.832906480308868e-05</v>
+        <v>1.832906480308927e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0260669290647888</v>
+        <v>0.02606692906478992</v>
       </c>
       <c r="AF4" t="n">
-        <v>1006.764860842267</v>
+        <v>1006.764860842304</v>
       </c>
       <c r="AG4" t="n">
-        <v>717.8542378294173</v>
+        <v>717.8542378294231</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.40246418811489</v>
+        <v>1.40246418811493</v>
       </c>
       <c r="AI4" t="n">
-        <v>134545.2585737804</v>
+        <v>134545.2585760213</v>
       </c>
       <c r="AJ4" t="n">
-        <v>295.5919898334602</v>
+        <v>295.5919898334655</v>
       </c>
       <c r="AK4" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="AL4" t="n">
-        <v>3790.191475405104</v>
+        <v>3790.191475400326</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.5864355993119</v>
+        <v>1.586435599338307</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.9995328219705635</v>
+        <v>0.9995328219705558</v>
       </c>
       <c r="AO4" t="n">
-        <v>344.8010066303482</v>
+        <v>344.8010066303536</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.832906480308868e-05</v>
+        <v>1.832906480308927e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0260669290647888</v>
+        <v>0.02606692906478992</v>
       </c>
       <c r="AR4" t="n">
-        <v>1006.764860842267</v>
+        <v>1006.764860842304</v>
       </c>
       <c r="AS4" t="n">
-        <v>717.8542378294173</v>
+        <v>717.8542378294231</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.40246418811489</v>
+        <v>1.40246418811493</v>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
@@ -1228,19 +1228,19 @@
         </is>
       </c>
       <c r="AV4" t="n">
-        <v>2.498001805406602e-16</v>
+        <v>-9.990536176118781e-12</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.08016881576393804</v>
+        <v>0.08016881575322546</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01652413494669248</v>
+        <v>0.01652413493826014</v>
       </c>
       <c r="AY4" t="n">
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0488779944616638</v>
+        <v>0.04887799445938356</v>
       </c>
       <c r="BA4" t="n">
         <v>0.01476668635558176</v>
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.7631766175458342</v>
+        <v>0.7631766173455671</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.7631766175458341</v>
+        <v>0.7631766173455671</v>
       </c>
       <c r="BE4" t="n">
-        <v>467297.5597651669</v>
+        <v>467297.5597064974</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.768312409542736</v>
+        <v>2.768312410190374</v>
       </c>
       <c r="BG4" t="n">
         <v>421784.4310884894</v>
@@ -1275,136 +1275,136 @@
         <v>165.3032</v>
       </c>
       <c r="C5" t="n">
-        <v>248.9859257694221</v>
+        <v>248.9859257109333</v>
       </c>
       <c r="D5" t="n">
-        <v>107.0531758919862</v>
+        <v>107.0531759006011</v>
       </c>
       <c r="E5" t="n">
-        <v>224.7968166204665</v>
+        <v>224.7968165515815</v>
       </c>
       <c r="F5" t="n">
-        <v>64.53518548360081</v>
+        <v>64.53518547499547</v>
       </c>
       <c r="G5" t="n">
-        <v>122.4739682019962</v>
+        <v>122.4739681760645</v>
       </c>
       <c r="H5" t="n">
-        <v>107.0531758919862</v>
+        <v>107.0531759006011</v>
       </c>
       <c r="I5" t="n">
-        <v>59.49361662046653</v>
+        <v>59.49361655158145</v>
       </c>
       <c r="J5" t="n">
-        <v>29.0626317601133</v>
+        <v>29.0626317299873</v>
       </c>
       <c r="K5" t="n">
-        <v>91451.92619752896</v>
+        <v>91451.9262168354</v>
       </c>
       <c r="L5" t="n">
-        <v>264.6692452686585</v>
+        <v>264.6692452833991</v>
       </c>
       <c r="M5" t="n">
-        <v>390787.4354728613</v>
+        <v>390787.4354876249</v>
       </c>
       <c r="N5" t="n">
-        <v>3790.191475400426</v>
+        <v>3790.191475395648</v>
       </c>
       <c r="O5" t="n">
-        <v>1.204523008247065</v>
+        <v>1.204523008434196</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9993509923980606</v>
+        <v>0.9993509923981196</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2494159872707</v>
+        <v>326.2494159963676</v>
       </c>
       <c r="R5" t="n">
-        <v>1.678935938046964e-05</v>
+        <v>1.678935938122051e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02370465993144938</v>
+        <v>0.02370465993259587</v>
       </c>
       <c r="T5" t="n">
-        <v>1005.372679140634</v>
+        <v>1005.372679141201</v>
       </c>
       <c r="U5" t="n">
-        <v>716.6789524000906</v>
+        <v>716.6789524005291</v>
       </c>
       <c r="V5" t="n">
-        <v>1.402821550393987</v>
+        <v>1.402821550393921</v>
       </c>
       <c r="W5" t="n">
-        <v>134545.2585733678</v>
+        <v>134545.2585756079</v>
       </c>
       <c r="X5" t="n">
-        <v>295.5919898333595</v>
+        <v>295.5919898333649</v>
       </c>
       <c r="Y5" t="n">
         <v>421784.4310884895</v>
       </c>
       <c r="Z5" t="n">
-        <v>3790.191475405645</v>
+        <v>3790.191475400867</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.586435599307575</v>
+        <v>1.586435599333972</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9995328219705636</v>
+        <v>0.999532821970556</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.8010066302892</v>
+        <v>344.8010066302946</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.832906480308374e-05</v>
+        <v>1.832906480308432e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02606692906478116</v>
+        <v>0.02606692906478228</v>
       </c>
       <c r="AF5" t="n">
-        <v>1006.764860842257</v>
+        <v>1006.764860842294</v>
       </c>
       <c r="AG5" t="n">
-        <v>717.8542378294119</v>
+        <v>717.8542378294179</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.402464188114887</v>
+        <v>1.402464188114927</v>
       </c>
       <c r="AI5" t="n">
-        <v>100808.5325701647</v>
+        <v>100808.5325865465</v>
       </c>
       <c r="AJ5" t="n">
-        <v>272.1544391192436</v>
+        <v>272.1544391306118</v>
       </c>
       <c r="AK5" t="n">
-        <v>398287.3719166335</v>
+        <v>398287.3719280208</v>
       </c>
       <c r="AL5" t="n">
-        <v>3790.191475396485</v>
+        <v>3790.191475391707</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.291193469254028</v>
+        <v>1.291193469409853</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.9993884353701454</v>
+        <v>0.9993884353701953</v>
       </c>
       <c r="AO5" t="n">
-        <v>330.8361147249901</v>
+        <v>330.8361147319086</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.716842136623024e-05</v>
+        <v>1.716842136680301e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0242840594351371</v>
+        <v>0.02428405943601386</v>
       </c>
       <c r="AR5" t="n">
-        <v>1005.659363596969</v>
+        <v>1005.659363597461</v>
       </c>
       <c r="AS5" t="n">
-        <v>716.9136209098824</v>
+        <v>716.9136209102668</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.40276224954496</v>
+        <v>1.402762249544894</v>
       </c>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
@@ -1415,19 +1415,19 @@
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="n">
-        <v>0.7631766175456903</v>
+        <v>0.7631766173451342</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.3753998082460163</v>
+        <v>0.3753998081560646</v>
       </c>
       <c r="BE5" t="n">
-        <v>228980.8564765692</v>
+        <v>228980.8564534194</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.768312409540125</v>
+        <v>2.768312410192978</v>
       </c>
       <c r="BG5" t="n">
-        <v>384624.7979514134</v>
+        <v>384624.7979628004</v>
       </c>
       <c r="BH5" t="inlineStr"/>
     </row>
@@ -1439,136 +1439,136 @@
         <v>165.3032</v>
       </c>
       <c r="C6" t="n">
-        <v>156.5116612064172</v>
+        <v>156.5116573056519</v>
       </c>
       <c r="D6" t="n">
-        <v>133.5265557630174</v>
+        <v>133.5265536173444</v>
       </c>
       <c r="E6" t="n">
-        <v>-81.64899876702782</v>
+        <v>-81.64899479868856</v>
       </c>
       <c r="F6" t="n">
-        <v>-31.44500819165427</v>
+        <v>-31.44500736204414</v>
       </c>
       <c r="G6" t="n">
-        <v>280.7396116863522</v>
+        <v>280.7396071750742</v>
       </c>
       <c r="H6" t="n">
-        <v>133.5265557630174</v>
+        <v>133.5265536173444</v>
       </c>
       <c r="I6" t="n">
-        <v>-246.9521987670278</v>
+        <v>-246.9521947986886</v>
       </c>
       <c r="J6" t="n">
         <v>-61.6</v>
       </c>
       <c r="K6" t="n">
-        <v>54903.0902201948</v>
+        <v>54903.09135746194</v>
       </c>
       <c r="L6" t="n">
-        <v>232.7960737160403</v>
+        <v>232.7960749925999</v>
       </c>
       <c r="M6" t="n">
-        <v>358880.0071317246</v>
+        <v>358880.0084096133</v>
       </c>
       <c r="N6" t="n">
-        <v>3808.099964547506</v>
+        <v>3808.09996409512</v>
       </c>
       <c r="O6" t="n">
-        <v>0.822198690675687</v>
+        <v>0.8221987031966234</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9992821440223827</v>
+        <v>0.999282144024266</v>
       </c>
       <c r="Q6" t="n">
-        <v>305.9515518633213</v>
+        <v>305.9515527030642</v>
       </c>
       <c r="R6" t="n">
-        <v>1.51252690708526e-05</v>
+        <v>1.512526913917208e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02117714176413268</v>
+        <v>0.02117714186733196</v>
       </c>
       <c r="T6" t="n">
-        <v>1004.349175315836</v>
+        <v>1004.349175346182</v>
       </c>
       <c r="U6" t="n">
-        <v>715.9588095651151</v>
+        <v>715.9588095853355</v>
       </c>
       <c r="V6" t="n">
-        <v>1.402803013103357</v>
+        <v>1.402803013106123</v>
       </c>
       <c r="W6" t="n">
-        <v>65649.45342078852</v>
+        <v>65649.45415016357</v>
       </c>
       <c r="X6" t="n">
-        <v>245.0271007535052</v>
+        <v>245.027101420437</v>
       </c>
       <c r="Y6" t="n">
-        <v>371127.9571783273</v>
+        <v>371127.957845894</v>
       </c>
       <c r="Z6" t="n">
-        <v>3808.099964556071</v>
+        <v>3808.099964093556</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.934024032370148</v>
+        <v>0.934024040204072</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9993157044395845</v>
+        <v>0.9993157044405777</v>
       </c>
       <c r="AC6" t="n">
-        <v>313.8949625153056</v>
+        <v>313.8949629429578</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.577334051133451e-05</v>
+        <v>1.577334054634709e-05</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02215798542321612</v>
+        <v>0.02215798547633339</v>
       </c>
       <c r="AF6" t="n">
-        <v>1004.64439018041</v>
+        <v>1004.64439020088</v>
       </c>
       <c r="AG6" t="n">
-        <v>716.1766293240604</v>
+        <v>716.1766293379935</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.402788570647174</v>
+        <v>1.402788570648465</v>
       </c>
       <c r="AI6" t="n">
-        <v>94707.93051012167</v>
+        <v>94707.93067685897</v>
       </c>
       <c r="AJ6" t="n">
-        <v>272.1376968630711</v>
+        <v>272.1376968750462</v>
       </c>
       <c r="AK6" t="n">
-        <v>398287.3719164334</v>
+        <v>398287.3719280144</v>
       </c>
       <c r="AL6" t="n">
-        <v>3808.099964547505</v>
+        <v>3808.09996408499</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.21308485879321</v>
+        <v>1.213084860876561</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9994250479686454</v>
+        <v>0.9994250479677856</v>
       </c>
       <c r="AO6" t="n">
-        <v>330.8224066927822</v>
+        <v>330.8224067001552</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.716666024463337e-05</v>
+        <v>1.716666024525932e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.02428064296293239</v>
+        <v>0.02428064296390832</v>
       </c>
       <c r="AR6" t="n">
-        <v>1005.537333315118</v>
+        <v>1005.537333318633</v>
       </c>
       <c r="AS6" t="n">
-        <v>716.8941750440883</v>
+        <v>716.8941750449598</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.402630078914058</v>
+        <v>1.402630078917256</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="AV6" t="n">
-        <v>1.341390887255045e-11</v>
+        <v>8.154410480187835e-11</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.1532628196740418</v>
+        <v>0.1532628195654801</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.02613555511519988</v>
+        <v>0.02613555511116458</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.03880326038505037</v>
+        <v>0.03880326036893424</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.07420055473151695</v>
+        <v>0.07420055464310664</v>
       </c>
       <c r="BA6" t="n">
         <v>0.01412344944227462</v>
@@ -1597,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.5115570104260695</v>
+        <v>0.5115569962723853</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.9175949916794928</v>
+        <v>0.9175949744159037</v>
       </c>
       <c r="BE6" t="n">
-        <v>397696.5081529087</v>
+        <v>397696.5060222219</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.768312409648257</v>
+        <v>2.76831240732105</v>
       </c>
       <c r="BG6" t="n">
-        <v>384624.7979514134</v>
+        <v>384624.7979628004</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -1623,136 +1623,136 @@
         <v>165.3032</v>
       </c>
       <c r="C7" t="n">
-        <v>155.5075500388066</v>
+        <v>155.5075500785471</v>
       </c>
       <c r="D7" t="n">
-        <v>132.997774131853</v>
+        <v>132.9977741682677</v>
       </c>
       <c r="E7" t="n">
-        <v>-80.5865385473565</v>
+        <v>-80.58653856394565</v>
       </c>
       <c r="F7" t="n">
-        <v>-31.2126765775463</v>
+        <v>-31.21267657582095</v>
       </c>
       <c r="G7" t="n">
-        <v>279.5535216142246</v>
+        <v>279.5535216461404</v>
       </c>
       <c r="H7" t="n">
-        <v>132.997774131853</v>
+        <v>132.9977741682677</v>
       </c>
       <c r="I7" t="n">
-        <v>-245.8897385473565</v>
+        <v>-245.8897385639457</v>
       </c>
       <c r="J7" t="n">
-        <v>-61.59176291682743</v>
+        <v>-61.59176291188037</v>
       </c>
       <c r="K7" t="n">
-        <v>55200.00000193986</v>
+        <v>55200.00000378009</v>
       </c>
       <c r="L7" t="n">
-        <v>233.1280088652753</v>
+        <v>233.1280088677362</v>
       </c>
       <c r="M7" t="n">
-        <v>359212.2861929758</v>
+        <v>359212.2861954406</v>
       </c>
       <c r="N7" t="n">
-        <v>3807.979251231759</v>
+        <v>3807.97925123277</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8254676443661391</v>
+        <v>0.8254676443849377</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9992826297566421</v>
+        <v>0.9992826297566504</v>
       </c>
       <c r="Q7" t="n">
-        <v>306.1698268119599</v>
+        <v>306.1698268135777</v>
       </c>
       <c r="R7" t="n">
-        <v>1.514302906144368e-05</v>
+        <v>1.514302906157525e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02120397057111152</v>
+        <v>0.02120397057131023</v>
       </c>
       <c r="T7" t="n">
-        <v>1004.357104420483</v>
+        <v>1004.357104420531</v>
       </c>
       <c r="U7" t="n">
-        <v>715.9640899856832</v>
+        <v>715.9640899857205</v>
       </c>
       <c r="V7" t="n">
-        <v>1.402803741791808</v>
+        <v>1.402803741791802</v>
       </c>
       <c r="W7" t="n">
-        <v>65841.34201945631</v>
+        <v>65841.3420295385</v>
       </c>
       <c r="X7" t="n">
-        <v>245.2025609139073</v>
+        <v>245.2025609224462</v>
       </c>
       <c r="Y7" t="n">
-        <v>371303.5852527121</v>
+        <v>371303.5852612568</v>
       </c>
       <c r="Z7" t="n">
-        <v>3807.97925124036</v>
+        <v>3807.979251231282</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9360835536744146</v>
+        <v>0.9360835537851526</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.9993159692045894</v>
+        <v>0.9993159692045948</v>
       </c>
       <c r="AC7" t="n">
-        <v>314.0074516933374</v>
+        <v>314.0074516988108</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.578255052016707e-05</v>
+        <v>1.578255052061533e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02217195823422734</v>
+        <v>0.02217195823490756</v>
       </c>
       <c r="AF7" t="n">
-        <v>1004.649777072702</v>
+        <v>1004.649777072983</v>
       </c>
       <c r="AG7" t="n">
-        <v>716.1803004772372</v>
+        <v>716.1803004774193</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.402788901626083</v>
+        <v>1.402788901626119</v>
       </c>
       <c r="AI7" t="n">
-        <v>94747.78951862831</v>
+        <v>94747.78953317844</v>
       </c>
       <c r="AJ7" t="n">
-        <v>272.1378062683731</v>
+        <v>272.1378062797374</v>
       </c>
       <c r="AK7" t="n">
-        <v>398287.3719164333</v>
+        <v>398287.3719278203</v>
       </c>
       <c r="AL7" t="n">
-        <v>3807.979251231759</v>
+        <v>3807.979251229548</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.213595203402079</v>
+        <v>1.213595203537705</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.9994248085904761</v>
+        <v>0.999424808590528</v>
       </c>
       <c r="AO7" t="n">
-        <v>330.8224962128243</v>
+        <v>330.8224962197381</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.716667174960118e-05</v>
+        <v>1.716667175017353e-05</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.02428066528041602</v>
+        <v>0.02428066528129196</v>
       </c>
       <c r="AR7" t="n">
-        <v>1005.538130671811</v>
+        <v>1005.538130672279</v>
       </c>
       <c r="AS7" t="n">
-        <v>716.8943021158217</v>
+        <v>716.8943021162023</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.40263094253099</v>
+        <v>1.402630942530897</v>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
@@ -1760,40 +1760,40 @@
         </is>
       </c>
       <c r="AV7" t="n">
-        <v>-5.856670703963118e-11</v>
+        <v>-1.574318453378964e-11</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1532511204272253</v>
+        <v>0.153251120381465</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02613627201324022</v>
+        <v>0.02613627200999062</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0387977681168933</v>
+        <v>0.03879776809747477</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.07419406898706139</v>
+        <v>0.0741940689642326</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.01412301131003035</v>
+        <v>0.01412301130976701</v>
       </c>
       <c r="BB7" t="n">
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.5079127217010663</v>
+        <v>0.5079127218281811</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.9130668574533237</v>
+        <v>0.9130668575527411</v>
       </c>
       <c r="BE7" t="n">
-        <v>397124.4973384679</v>
+        <v>397124.4973893999</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.768312409642546</v>
+        <v>2.768312410463551</v>
       </c>
       <c r="BG7" t="n">
-        <v>384624.7979514134</v>
+        <v>384624.7979628004</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08016881576393804</v>
+        <v>0.08016881575322546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01652413494669248</v>
+        <v>0.01652413493826014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0488779944616638</v>
+        <v>0.04887799445938356</v>
       </c>
       <c r="F2" t="n">
         <v>0.01476668635558176</v>
@@ -1943,22 +1943,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1918.289812318922</v>
+        <v>1918.289811169379</v>
       </c>
       <c r="I2" t="n">
-        <v>0.970485860024178</v>
+        <v>0.970485862977106</v>
       </c>
       <c r="J2" t="n">
-        <v>2.838801746294274</v>
+        <v>2.838801746294576</v>
       </c>
       <c r="K2" t="n">
-        <v>1.019662555231184</v>
+        <v>1.019662552622693</v>
       </c>
       <c r="L2" t="n">
-        <v>306.8526580060811</v>
+        <v>306.8526587911015</v>
       </c>
       <c r="M2" t="n">
-        <v>72715.1885802879</v>
+        <v>72715.18832385207</v>
       </c>
       <c r="N2" t="n">
         <v>65</v>
@@ -1968,19 +1968,19 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>0.005537587593393393</v>
+        <v>0.00553758759015273</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01638005115511585</v>
+        <v>0.0163800511531247</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004948629348646704</v>
+        <v>0.004948629348276013</v>
       </c>
     </row>
     <row r="3">
@@ -1988,62 +1988,62 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1532511204272253</v>
+        <v>0.153251120381465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02613627201324022</v>
+        <v>0.02613627200999062</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0387977681168933</v>
+        <v>0.03879776809747477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07419406898706139</v>
+        <v>0.0741940689642326</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01412301131003035</v>
+        <v>0.01412301130976701</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4110.323303981917</v>
+        <v>4110.323305351019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9466137111536969</v>
+        <v>0.94661371160663</v>
       </c>
       <c r="J3" t="n">
-        <v>2.769107994094859</v>
+        <v>2.769107994710019</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8009717434179946</v>
+        <v>0.8009717432484391</v>
       </c>
       <c r="L3" t="n">
-        <v>288.2624504674382</v>
+        <v>288.2624505924975</v>
       </c>
       <c r="M3" t="n">
-        <v>52986.52205319024</v>
+        <v>52986.52203724564</v>
       </c>
       <c r="N3" t="n">
         <v>-61.6</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.5373682398867032</v>
+        <v>-0.5373682700126992</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>0.009817684923682511</v>
+        <v>0.009817684932499514</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02786985045732343</v>
+        <v>0.02786985047724247</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01457377941738566</v>
+        <v>0.01457377942499172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005305089996968274</v>
+        <v>0.005305090002293312</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2068,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>reaction</t>
         </is>
       </c>
     </row>
@@ -2076,8 +2076,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.5329091884349765</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[0.53290919]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2196,40 +2198,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.499999999870516</v>
+        <v>2.095947557323345</v>
       </c>
       <c r="C2" t="n">
-        <v>2.095947557644295</v>
+        <v>2.499999999787172</v>
       </c>
       <c r="D2" t="n">
-        <v>2.768312409642546</v>
+        <v>2.768312410463551</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8974183634955504</v>
+        <v>0.897418363442241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7386451778052953</v>
+        <v>0.7386451776802675</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1769221492992576</v>
+        <v>0.1769221493896836</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08443267289544715</v>
+        <v>0.08443267293004886</v>
       </c>
       <c r="I2" t="n">
-        <v>139746.7519767123</v>
+        <v>139746.7519945029</v>
       </c>
       <c r="J2" t="n">
-        <v>85.89228763166091</v>
+        <v>85.89228764259553</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-31.2126765775463</v>
+        <v>-31.21267657582095</v>
       </c>
       <c r="M2" t="n">
-        <v>155.5075500388066</v>
+        <v>155.5075500785471</v>
       </c>
       <c r="N2" t="n">
         <v>369.7093005183567</v>
@@ -2244,7 +2246,7 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>371303.5852527121</v>
+        <v>371303.5852612568</v>
       </c>
       <c r="S2" t="n">
         <v>353441.9476436031</v>
@@ -2261,7 +2263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2487,264 +2489,213 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stator</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.018294</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02616</v>
-      </c>
-      <c r="E2" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.007731</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.00254</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.00505</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.01912286864605749</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.758627359861796</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.6993119266055047</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.1930428134556575</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.06467468632777131</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.0970948012232416</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rotor</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01524</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02606</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-31.05</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.007249</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00162</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-61.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.00447</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.02232605854162319</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.08185000000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.08185000000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.12135</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.12135</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.118715</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.12165</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.12165</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.6986814997939843</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.6744952616398847</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.6744952616398847</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.02521567927477312</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.02521567927477312</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.036565</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.03949999999999999</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.257102584362989</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1.637772288907632</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.5848042977743668</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.171527244819647</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.06897503103876397</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.00820456720907972</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.06216423637759017</v>
+          <t>['stator' 'rotor']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.018294 0.01524 ]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.02616 0.02606]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[ 43.03 -31.05]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0.007731 0.007249]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[0.00254 0.00162]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[50. 50.]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[ 0.  29.6]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[ 65.  -61.6]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[0.0005 0.0005]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[0.00505 0.00447]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[0.     0.0003]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1. 1.]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[0.01912287 0.02232606]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.084785]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.08185 ]</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.08185 ]</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.118415]</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12135 ]</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12135 ]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.118715]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12165 ]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12165 ]</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.6986815 ]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.67449526]</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.67449526]</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02146844]</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02521568]</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02521568]</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>[0.03363  0.036565]</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>[0.03363 0.03363]</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>[0.03363 0.0395 ]</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>[0.         0.25710258]</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>[1.75862736 1.63777229]</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>[0.69931193 0.5848043 ]</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>[0.19304281 0.17152724]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>[0.06467469 0.06897503]</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>[0.         0.00820457]</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>[0.0970948  0.06216424]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +2709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,6 +2965,23 @@
         <v>4.901195416052359e-08</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.592968936970886e-09</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.253116303874081e-08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/regression_data/kofskey1972a_kacker_okapuu_2.xlsx
+++ b/tests/regression_data/kofskey1972a_kacker_okapuu_2.xlsx
@@ -2263,7 +2263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,20 +2464,25 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>solidity</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>thickness_max_chord_ratio</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>thickness_te_opening_ratio</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>tip_clearance_height_ratio</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>diameter_le_chord_ratio</t>
         </is>
@@ -2679,20 +2684,25 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>[1.42997704 1.70997375]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>[0.19304281 0.17152724]</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>[0.06467469 0.06897503]</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>[0.         0.00820457]</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>[0.0970948  0.06216424]</t>
         </is>
